--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntf-Lifr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cntf-Lifr.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H2">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I2">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J2">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N2">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O2">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P2">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q2">
-        <v>30.85936431629334</v>
+        <v>33.76108365865222</v>
       </c>
       <c r="R2">
-        <v>277.7342788466401</v>
+        <v>303.8497529278699</v>
       </c>
       <c r="S2">
-        <v>0.1116454245387083</v>
+        <v>0.1218525737302169</v>
       </c>
       <c r="T2">
-        <v>0.1116454245387082</v>
+        <v>0.1218525737302169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H3">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I3">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J3">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N3">
         <v>173.401921</v>
       </c>
       <c r="O3">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P3">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q3">
-        <v>56.72225378663435</v>
+        <v>44.3709698219651</v>
       </c>
       <c r="R3">
-        <v>510.5002840797091</v>
+        <v>399.3387283976859</v>
       </c>
       <c r="S3">
-        <v>0.2052142111513788</v>
+        <v>0.1601464255821246</v>
       </c>
       <c r="T3">
-        <v>0.2052142111513787</v>
+        <v>0.1601464255821246</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H4">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I4">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J4">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N4">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O4">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P4">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q4">
-        <v>13.55296965569067</v>
+        <v>16.06625975075889</v>
       </c>
       <c r="R4">
-        <v>121.976726901216</v>
+        <v>144.59633775683</v>
       </c>
       <c r="S4">
-        <v>0.04903299482973809</v>
+        <v>0.05798733004668956</v>
       </c>
       <c r="T4">
-        <v>0.04903299482973809</v>
+        <v>0.05798733004668954</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9813430000000002</v>
+        <v>0.7676553333333332</v>
       </c>
       <c r="H5">
-        <v>2.944029</v>
+        <v>2.302966</v>
       </c>
       <c r="I5">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="J5">
-        <v>0.4086459696369597</v>
+        <v>0.3736977786965754</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N5">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O5">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P5">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q5">
-        <v>11.81724081398667</v>
+        <v>9.340262798708666</v>
       </c>
       <c r="R5">
-        <v>106.35516732588</v>
+        <v>84.062365188378</v>
       </c>
       <c r="S5">
-        <v>0.04275333911713462</v>
+        <v>0.03371144933754432</v>
       </c>
       <c r="T5">
-        <v>0.0427533391171346</v>
+        <v>0.03371144933754432</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H6">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I6">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J6">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N6">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O6">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P6">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q6">
-        <v>44.21261640376</v>
+        <v>35.68512734226</v>
       </c>
       <c r="R6">
-        <v>397.91354763384</v>
+        <v>321.16614608034</v>
       </c>
       <c r="S6">
-        <v>0.1599558655120652</v>
+        <v>0.1287969501959555</v>
       </c>
       <c r="T6">
-        <v>0.1599558655120652</v>
+        <v>0.1287969501959555</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H7">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I7">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J7">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N7">
         <v>173.401921</v>
       </c>
       <c r="O7">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P7">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q7">
-        <v>81.266717697781</v>
+        <v>46.89967076902799</v>
       </c>
       <c r="R7">
-        <v>731.4004592800291</v>
+        <v>422.097036921252</v>
       </c>
       <c r="S7">
-        <v>0.2940130945421213</v>
+        <v>0.169273168127152</v>
       </c>
       <c r="T7">
-        <v>0.2940130945421212</v>
+        <v>0.169273168127152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H8">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I8">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J8">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N8">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O8">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P8">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q8">
-        <v>19.417517560544</v>
+        <v>16.98187566834</v>
       </c>
       <c r="R8">
-        <v>174.757658044896</v>
+        <v>152.83688101506</v>
       </c>
       <c r="S8">
-        <v>0.07025021543914782</v>
+        <v>0.06129202717174821</v>
       </c>
       <c r="T8">
-        <v>0.07025021543914782</v>
+        <v>0.0612920271717482</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>1.405983</v>
+        <v>0.811404</v>
       </c>
       <c r="H9">
-        <v>4.217949</v>
+        <v>2.434212</v>
       </c>
       <c r="I9">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="J9">
-        <v>0.5854724457484095</v>
+        <v>0.3949948098567449</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N9">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O9">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P9">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q9">
-        <v>16.93071606092</v>
+        <v>9.872564244444002</v>
       </c>
       <c r="R9">
-        <v>152.37644454828</v>
+        <v>88.85307819999601</v>
       </c>
       <c r="S9">
-        <v>0.06125327025507521</v>
+        <v>0.03563266436188917</v>
       </c>
       <c r="T9">
-        <v>0.06125327025507519</v>
+        <v>0.03563266436188917</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H10">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I10">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J10">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.44605333333334</v>
+        <v>43.97948166666666</v>
       </c>
       <c r="N10">
-        <v>94.33816</v>
+        <v>131.938445</v>
       </c>
       <c r="O10">
-        <v>0.273208187120734</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="P10">
-        <v>0.2732081871207339</v>
+        <v>0.3260725128076164</v>
       </c>
       <c r="Q10">
-        <v>0.4441545392977777</v>
+        <v>20.897070611325</v>
       </c>
       <c r="R10">
-        <v>3.997390853679999</v>
+        <v>188.073635501925</v>
       </c>
       <c r="S10">
-        <v>0.001606897069960481</v>
+        <v>0.07542298888144403</v>
       </c>
       <c r="T10">
-        <v>0.00160689706996048</v>
+        <v>0.07542298888144403</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>25</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H11">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I11">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J11">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.80064033333334</v>
+        <v>57.80064033333333</v>
       </c>
       <c r="N11">
         <v>173.401921</v>
       </c>
       <c r="O11">
-        <v>0.5021809252974908</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="P11">
-        <v>0.5021809252974907</v>
+        <v>0.4285452970598356</v>
       </c>
       <c r="Q11">
-        <v>0.816395510948111</v>
+        <v>27.464263257585</v>
       </c>
       <c r="R11">
-        <v>7.347559598533</v>
+        <v>247.178369318265</v>
       </c>
       <c r="S11">
-        <v>0.002953619603990779</v>
+        <v>0.09912570335055894</v>
       </c>
       <c r="T11">
-        <v>0.002953619603990778</v>
+        <v>0.09912570335055894</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H12">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I12">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J12">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.81063466666667</v>
+        <v>20.92900166666667</v>
       </c>
       <c r="N12">
-        <v>41.431904</v>
+        <v>62.787005</v>
       </c>
       <c r="O12">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="P12">
-        <v>0.1199889353449366</v>
+        <v>0.15517172793733</v>
       </c>
       <c r="Q12">
-        <v>0.1950660075768889</v>
+        <v>9.944519786925001</v>
       </c>
       <c r="R12">
-        <v>1.755594068192</v>
+        <v>89.500678082325</v>
       </c>
       <c r="S12">
-        <v>0.0007057250760507086</v>
+        <v>0.03589237071889222</v>
       </c>
       <c r="T12">
-        <v>0.0007057250760507084</v>
+        <v>0.03589237071889221</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01412433333333333</v>
+        <v>0.475155</v>
       </c>
       <c r="H13">
-        <v>0.04237299999999999</v>
+        <v>1.425465</v>
       </c>
       <c r="I13">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="J13">
-        <v>0.005881584614630796</v>
+        <v>0.2313074114466796</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.04190666666667</v>
+        <v>12.167261</v>
       </c>
       <c r="N13">
-        <v>36.12572</v>
+        <v>36.501783</v>
       </c>
       <c r="O13">
-        <v>0.1046219522368387</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="P13">
-        <v>0.1046219522368386</v>
+        <v>0.0902104621952179</v>
       </c>
       <c r="Q13">
-        <v>0.1700839037288889</v>
+        <v>5.781334900455001</v>
       </c>
       <c r="R13">
-        <v>1.53075513356</v>
+        <v>52.032014104095</v>
       </c>
       <c r="S13">
-        <v>0.0006153428646288282</v>
+        <v>0.0208663484957844</v>
       </c>
       <c r="T13">
-        <v>0.000615342864628828</v>
+        <v>0.0208663484957844</v>
       </c>
     </row>
   </sheetData>
